--- a/biology/Botanique/Amburana_cearensis/Amburana_cearensis.xlsx
+++ b/biology/Botanique/Amburana_cearensis/Amburana_cearensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amburana cearensis est une espèce de plantes dicotylédones  de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud.
 Ce sont  des arbres à feuilles caduques pouvant atteindre 35 mètres de haut.
-Le nom vernaculaire de cette espèce, variable selon les régions, est amburana, emburana, imburana ou umburana. L'espèce est aussi connue sous les noms de cumaru-do-ceará, cumaru-de-cheiro, à cause de la ressemblance du fruit avec le coumarou amazonien (fève tonka). En français, on l'appelle aussi « fausse tonka » [2].
+Le nom vernaculaire de cette espèce, variable selon les régions, est amburana, emburana, imburana ou umburana. L'espèce est aussi connue sous les noms de cumaru-do-ceará, cumaru-de-cheiro, à cause de la ressemblance du fruit avec le coumarou amazonien (fève tonka). En français, on l'appelle aussi « fausse tonka » .
 Le terme désigne aussi bien l'arbre que son fruit et la fève à l'intérieur du fruit.
 Le bois est utilisé dans la fabrication de meubles qui gardent l'arôme de l'arbre pour des années, ainsi que pour la fabrication des tonneaux dans lesquels on vieillit de la cachaça. La « cachaça d'amburana » est un produit raffiné et artisanal typiquement brésilien.
 Le fruit, amburana ou umburana, est similaire au fruit umbu, issu de l'arbre umbuzeiro.
@@ -518,7 +530,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amburana cearensis est naturellement présent dans le nord-est du Brésil, dans les régions du Ceará (d'où le nom cearensis) et de Bahia. En revanche, la fève tonka ou coumarou (Dipteryx odorata) est présente en Amazonie. Leurs goûts sont bien similaires, mais il s'agit d'espèces différentes qui appartiennent à des familles différentes.
 </t>
@@ -551,13 +565,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Amburana acreana (Ducke) A.C. Sm.[3]
-Amburana claudii Schwacke &amp; Taub.[3],[4]
-Torresea acreana Ducke[3]
-Torresea cearensis Allemão[3],[4]
-Liste des variétés
-Selon Tropicos                                           (24 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amburana acreana (Ducke) A.C. Sm.
+Amburana claudii Schwacke &amp; Taub.,
+Torresea acreana Ducke
+Torresea cearensis Allemão,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amburana_cearensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amburana_cearensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (24 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Amburana cearensis var. acreana (Ducke) J.F. Macbr.
 Amburana cearensis var. cearensis</t>
         </is>
